--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luboslav\Desktop\JsAngular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luboslav\Desktop\JsAngular\JsSpaAngular\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,9 +796,7 @@
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6">
-        <v>40</v>
-      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="12" t="s">
         <v>56</v>
       </c>
@@ -810,14 +808,12 @@
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
-        <v>40</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -971,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>5</v>
@@ -1298,7 +1294,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>139.5</v>
+        <v>62.5</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>picture can publish but with wrong size</t>
   </si>
 </sst>
 </file>
@@ -721,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -871,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
@@ -955,12 +958,14 @@
         <v>10</v>
       </c>
       <c r="C20" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
@@ -1294,7 +1299,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>62.5</v>
+        <v>66</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>https://github.com/luboslav1995</t>
-  </si>
-  <si>
-    <t>6 days</t>
   </si>
   <si>
     <t xml:space="preserve">I think the design is simple and good </t>
@@ -724,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,25 +796,25 @@
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
       <c r="D8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>29</v>
+      </c>
       <c r="D9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="6">
-        <v>30</v>
-      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
@@ -838,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -852,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -866,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -880,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -894,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -908,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -922,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -936,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -950,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -964,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -1098,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1106,13 +1103,13 @@
         <v>24</v>
       </c>
       <c r="C32" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1299,7 +1296,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -212,34 +212,16 @@
     <t>structure is perfect as Vlado made it</t>
   </si>
   <si>
-    <t>all ads are listed</t>
-  </si>
-  <si>
     <t xml:space="preserve"> pagging is half working</t>
   </si>
   <si>
-    <t xml:space="preserve"> category and filttering - implemented</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> login screen is done</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> register screen is done</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> user home screen is done</t>
-  </si>
-  <si>
-    <t>made path and design</t>
-  </si>
-  <si>
     <t>user can logout</t>
   </si>
   <si>
     <t>done</t>
   </si>
   <si>
-    <t>picture can publish but with wrong size</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -721,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -862,22 +844,20 @@
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -891,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -904,23 +884,19 @@
       <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -932,23 +908,19 @@
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
@@ -960,16 +932,14 @@
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>5</v>
@@ -1095,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1103,13 +1073,13 @@
         <v>24</v>
       </c>
       <c r="C32" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1296,7 +1266,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
